--- a/data/trans_orig/P1428-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1428-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{701142FA-445C-4F10-B5AD-FA0BDB54BBC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AFDE566-E3EC-48FC-9782-FA22134E95C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E477D46D-F48D-4F4E-9D25-200449FC8C90}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06322A09-4A64-4286-8024-D7BF842E4BE9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="504">
   <si>
     <t>Población con diagnóstico de artritis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -98,1243 +98,1270 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,83%</t>
+    <t>1,7%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
-    <t>1,44%</t>
+    <t>1,43%</t>
   </si>
   <si>
     <t>0,57%</t>
   </si>
   <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
     <t>0,24%</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>76,33%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>74,7%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
   </si>
   <si>
     <t>1,15%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
   </si>
   <si>
     <t>98,85%</t>
   </si>
   <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>98,39%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
   </si>
   <si>
     <t>0,18%</t>
   </si>
   <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>34,37%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
   </si>
   <si>
     <t>2,4%</t>
   </si>
   <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>77,95%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
     <t>4,25%</t>
   </si>
   <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
   </si>
   <si>
     <t>95,75%</t>
   </si>
   <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>82,38%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>79,61%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>99,91%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,66%</t>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2023 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
   </si>
   <si>
     <t>99,55%</t>
   </si>
   <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>97,04%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2023 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
     <t>92,8%</t>
   </si>
   <si>
-    <t>78,35%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
   </si>
   <si>
     <t>95,68%</t>
   </si>
   <si>
-    <t>87,79%</t>
+    <t>85,84%</t>
   </si>
   <si>
     <t>3,83%</t>
   </si>
   <si>
-    <t>5,58%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
   </si>
   <si>
     <t>9,32%</t>
   </si>
   <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
   </si>
   <si>
     <t>6,61%</t>
   </si>
   <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
   </si>
   <si>
     <t>96,17%</t>
   </si>
   <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>93,36%</t>
@@ -1343,121 +1370,130 @@
     <t>91,44%</t>
   </si>
   <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>7,8%</t>
   </si>
   <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
   </si>
   <si>
     <t>18,45%</t>
   </si>
   <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
   </si>
   <si>
     <t>13,11%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
   </si>
   <si>
     <t>92,2%</t>
   </si>
   <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
   </si>
   <si>
     <t>81,08%</t>
   </si>
   <si>
-    <t>78,22%</t>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
   <si>
     <t>86,66%</t>
   </si>
   <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
     <t>84,92%</t>
   </si>
   <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
   </si>
   <si>
     <t>56,59%</t>
   </si>
   <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
   </si>
   <si>
     <t>68,05%</t>
   </si>
   <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
   </si>
   <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>3,3%</t>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>0,05%</t>
@@ -1466,55 +1502,55 @@
     <t>5,49%</t>
   </si>
   <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
   </si>
   <si>
     <t>11,65%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>94,51%</t>
   </si>
   <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
   </si>
   <si>
     <t>82,08%</t>
   </si>
   <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
   </si>
   <si>
     <t>87,91%</t>
   </si>
   <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
+    <t>82,1%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
   </si>
 </sst>
 </file>
@@ -1926,7 +1962,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2C0EB2-9367-430E-923C-30F3A5307BCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4098A5-11B4-40F5-B9EE-60A09E06C5C4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2134,16 +2170,16 @@
         <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>495</v>
@@ -2152,13 +2188,13 @@
         <v>490515</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>487</v>
@@ -2167,13 +2203,13 @@
         <v>465578</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="M6" s="7">
         <v>982</v>
@@ -2182,13 +2218,13 @@
         <v>956092</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,13 +2239,13 @@
         <v>494064</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>489</v>
@@ -2218,13 +2254,13 @@
         <v>467489</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>988</v>
@@ -2233,18 +2269,18 @@
         <v>961553</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2262,7 +2298,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2277,7 +2313,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2292,7 +2328,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,13 +2343,13 @@
         <v>3173</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -2322,13 +2358,13 @@
         <v>7870</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -2337,10 +2373,10 @@
         <v>11044</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>47</v>
@@ -2349,7 +2385,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>700</v>
@@ -2409,13 +2445,13 @@
         <v>735489</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>591</v>
@@ -2424,13 +2460,13 @@
         <v>625494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>1294</v>
@@ -2439,13 +2475,13 @@
         <v>1360982</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,7 +2534,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2516,10 +2552,10 @@
         <v>60</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -2528,13 +2564,13 @@
         <v>38808</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -2543,19 +2579,19 @@
         <v>42731</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
         <v>609</v>
@@ -2564,13 +2600,13 @@
         <v>634745</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="H14" s="7">
         <v>620</v>
@@ -2579,13 +2615,13 @@
         <v>650936</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M14" s="7">
         <v>1229</v>
@@ -2594,13 +2630,13 @@
         <v>1285681</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2615,13 +2651,13 @@
         <v>638668</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
         <v>658</v>
@@ -2630,13 +2666,13 @@
         <v>689744</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
         <v>1271</v>
@@ -2645,18 +2681,18 @@
         <v>1328412</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2674,7 +2710,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2719,13 +2755,13 @@
         <v>25505</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>73</v>
@@ -2734,13 +2770,13 @@
         <v>74896</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="M17" s="7">
         <v>97</v>
@@ -2749,19 +2785,19 @@
         <v>100402</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>460</v>
@@ -2770,13 +2806,13 @@
         <v>493642</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H18" s="7">
         <v>429</v>
@@ -2785,13 +2821,13 @@
         <v>440746</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M18" s="7">
         <v>889</v>
@@ -2800,13 +2836,13 @@
         <v>934387</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2821,13 +2857,13 @@
         <v>519147</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>502</v>
@@ -2836,13 +2872,13 @@
         <v>515642</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>986</v>
@@ -2851,18 +2887,18 @@
         <v>1034789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2880,7 +2916,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2895,7 +2931,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2910,7 +2946,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2925,13 +2961,13 @@
         <v>63560</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H21" s="7">
         <v>112</v>
@@ -2940,13 +2976,13 @@
         <v>113305</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M21" s="7">
         <v>176</v>
@@ -2955,19 +2991,19 @@
         <v>176864</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7">
         <v>328</v>
@@ -2976,13 +3012,13 @@
         <v>323150</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>284</v>
@@ -2991,13 +3027,13 @@
         <v>290681</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>612</v>
@@ -3006,13 +3042,13 @@
         <v>613832</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3027,13 +3063,13 @@
         <v>386710</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23" s="7">
         <v>396</v>
@@ -3042,13 +3078,13 @@
         <v>403986</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M23" s="7">
         <v>788</v>
@@ -3057,18 +3093,18 @@
         <v>790696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3086,7 +3122,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3116,7 +3152,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3131,13 +3167,13 @@
         <v>136848</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H25" s="7">
         <v>345</v>
@@ -3146,13 +3182,13 @@
         <v>359763</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M25" s="7">
         <v>491</v>
@@ -3161,19 +3197,19 @@
         <v>496610</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="7">
         <v>377</v>
@@ -3182,13 +3218,13 @@
         <v>365618</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H26" s="7">
         <v>316</v>
@@ -3197,13 +3233,13 @@
         <v>317079</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M26" s="7">
         <v>693</v>
@@ -3212,13 +3248,13 @@
         <v>682698</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3269,13 @@
         <v>502466</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27" s="7">
         <v>661</v>
@@ -3248,13 +3284,13 @@
         <v>676842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M27" s="7">
         <v>1184</v>
@@ -3263,13 +3299,13 @@
         <v>1179308</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,7 +3328,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -3307,7 +3343,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -3322,7 +3358,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3373,13 @@
         <v>236558</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H29" s="7">
         <v>577</v>
@@ -3352,13 +3388,13 @@
         <v>596553</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M29" s="7">
         <v>822</v>
@@ -3367,19 +3403,19 @@
         <v>833111</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>149</v>
+        <v>85</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
         <v>2969</v>
@@ -3388,13 +3424,13 @@
         <v>3039986</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H30" s="7">
         <v>2720</v>
@@ -3403,28 +3439,28 @@
         <v>2782645</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="M30" s="7">
         <v>5689</v>
       </c>
       <c r="N30" s="7">
-        <v>5822629</v>
+        <v>5822630</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3475,13 @@
         <v>3276544</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31" s="7">
         <v>3297</v>
@@ -3454,33 +3490,33 @@
         <v>3379198</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M31" s="7">
         <v>6511</v>
       </c>
       <c r="N31" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3502,7 +3538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D564007E-352C-4B7C-B20E-94E1018E2EFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD46BAD-3811-4AF5-84E8-ECBE56B45D89}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3519,7 +3555,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3632,7 +3668,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3647,7 +3683,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3662,7 +3698,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +3713,13 @@
         <v>914</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3692,13 +3728,13 @@
         <v>2198</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3707,19 +3743,19 @@
         <v>3112</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>445</v>
@@ -3728,13 +3764,13 @@
         <v>453232</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>419</v>
@@ -3743,13 +3779,13 @@
         <v>428032</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>864</v>
@@ -3758,13 +3794,13 @@
         <v>881264</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,13 +3815,13 @@
         <v>454146</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>421</v>
@@ -3794,13 +3830,13 @@
         <v>430230</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>867</v>
@@ -3809,18 +3845,18 @@
         <v>884376</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3853,7 +3889,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3868,7 +3904,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3919,13 @@
         <v>8751</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -3898,13 +3934,13 @@
         <v>2948</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>47</v>
+        <v>178</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -3913,19 +3949,19 @@
         <v>11699</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>660</v>
@@ -3934,13 +3970,13 @@
         <v>678336</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>568</v>
@@ -3949,13 +3985,13 @@
         <v>607307</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>55</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>1228</v>
@@ -3964,13 +4000,13 @@
         <v>1285643</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3985,13 +4021,13 @@
         <v>687087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>571</v>
@@ -4000,13 +4036,13 @@
         <v>610255</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>1238</v>
@@ -4015,13 +4051,13 @@
         <v>1297342</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,7 +4110,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4125,13 @@
         <v>6783</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -4104,10 +4140,10 @@
         <v>13887</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>196</v>
@@ -4122,16 +4158,16 @@
         <v>197</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
         <v>644</v>
@@ -4140,13 +4176,13 @@
         <v>675080</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="H14" s="7">
         <v>652</v>
@@ -4155,13 +4191,13 @@
         <v>695687</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>176</v>
+        <v>205</v>
       </c>
       <c r="M14" s="7">
         <v>1296</v>
@@ -4170,13 +4206,13 @@
         <v>1370766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4191,13 +4227,13 @@
         <v>681863</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
         <v>666</v>
@@ -4206,13 +4242,13 @@
         <v>709574</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
         <v>1317</v>
@@ -4221,18 +4257,18 @@
         <v>1391437</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4250,7 +4286,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4265,7 +4301,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4280,7 +4316,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>61</v>
+        <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4331,13 @@
         <v>11641</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -4310,13 +4346,13 @@
         <v>48252</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -4325,19 +4361,19 @@
         <v>59893</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>538</v>
@@ -4346,13 +4382,13 @@
         <v>602976</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="H18" s="7">
         <v>495</v>
@@ -4361,13 +4397,13 @@
         <v>566012</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M18" s="7">
         <v>1033</v>
@@ -4376,13 +4412,13 @@
         <v>1168987</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4397,13 +4433,13 @@
         <v>614617</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>538</v>
@@ -4412,13 +4448,13 @@
         <v>614264</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>1086</v>
@@ -4427,18 +4463,18 @@
         <v>1228880</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4456,7 +4492,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4471,7 +4507,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4486,7 +4522,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4537,13 @@
         <v>39956</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H21" s="7">
         <v>83</v>
@@ -4516,13 +4552,13 @@
         <v>90938</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="M21" s="7">
         <v>120</v>
@@ -4531,19 +4567,19 @@
         <v>130895</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7">
         <v>356</v>
@@ -4552,13 +4588,13 @@
         <v>389473</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H22" s="7">
         <v>323</v>
@@ -4567,13 +4603,13 @@
         <v>356862</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>110</v>
+        <v>242</v>
       </c>
       <c r="M22" s="7">
         <v>679</v>
@@ -4582,13 +4618,13 @@
         <v>746334</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4639,13 @@
         <v>429429</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23" s="7">
         <v>406</v>
@@ -4618,13 +4654,13 @@
         <v>447800</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M23" s="7">
         <v>799</v>
@@ -4633,18 +4669,18 @@
         <v>877229</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -4677,7 +4713,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4692,7 +4728,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4743,13 @@
         <v>108259</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="H25" s="7">
         <v>260</v>
@@ -4722,13 +4758,13 @@
         <v>282453</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="M25" s="7">
         <v>358</v>
@@ -4737,19 +4773,19 @@
         <v>390711</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="7">
         <v>406</v>
@@ -4758,13 +4794,13 @@
         <v>451378</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="H26" s="7">
         <v>434</v>
@@ -4773,13 +4809,13 @@
         <v>460522</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M26" s="7">
         <v>840</v>
@@ -4788,13 +4824,13 @@
         <v>911901</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4845,13 @@
         <v>559637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27" s="7">
         <v>694</v>
@@ -4824,13 +4860,13 @@
         <v>742975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M27" s="7">
         <v>1198</v>
@@ -4839,13 +4875,13 @@
         <v>1302612</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,7 +4904,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -4883,7 +4919,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -4898,7 +4934,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4913,13 +4949,13 @@
         <v>176304</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="H29" s="7">
         <v>405</v>
@@ -4928,13 +4964,13 @@
         <v>440677</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="M29" s="7">
         <v>565</v>
@@ -4943,19 +4979,19 @@
         <v>616981</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
         <v>3049</v>
@@ -4964,13 +5000,13 @@
         <v>3250475</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="H30" s="7">
         <v>2891</v>
@@ -4979,28 +5015,28 @@
         <v>3114421</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M30" s="7">
         <v>5940</v>
       </c>
       <c r="N30" s="7">
-        <v>6364896</v>
+        <v>6364897</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,13 +5051,13 @@
         <v>3426779</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31" s="7">
         <v>3296</v>
@@ -5030,33 +5066,33 @@
         <v>3555098</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M31" s="7">
         <v>6505</v>
       </c>
       <c r="N31" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5078,7 +5114,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{491432EB-FCE2-4CF1-ABB7-05FC072C28E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05173EDA-629F-4E38-929A-22EBDDABE868}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5095,7 +5131,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5208,7 +5244,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5223,7 +5259,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5238,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,7 +5295,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -5268,13 +5304,13 @@
         <v>1878</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>47</v>
+        <v>284</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5283,19 +5319,19 @@
         <v>1878</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>280</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>393</v>
@@ -5304,13 +5340,13 @@
         <v>419463</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="7">
         <v>402</v>
@@ -5319,13 +5355,13 @@
         <v>393877</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>55</v>
+        <v>288</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>795</v>
@@ -5334,13 +5370,13 @@
         <v>813340</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>284</v>
+        <v>54</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5391,13 @@
         <v>419463</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>404</v>
@@ -5370,13 +5406,13 @@
         <v>395755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>797</v>
@@ -5385,18 +5421,18 @@
         <v>815218</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5414,7 +5450,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5429,7 +5465,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -5459,13 +5495,13 @@
         <v>2011</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5474,13 +5510,13 @@
         <v>2454</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>180</v>
+        <v>292</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -5492,16 +5528,16 @@
         <v>14</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>565</v>
@@ -5510,13 +5546,13 @@
         <v>588485</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7">
         <v>577</v>
@@ -5525,13 +5561,13 @@
         <v>561090</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>187</v>
+        <v>298</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7">
         <v>1142</v>
@@ -5540,13 +5576,13 @@
         <v>1149575</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5561,13 +5597,13 @@
         <v>590496</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>579</v>
@@ -5576,13 +5612,13 @@
         <v>563544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>1146</v>
@@ -5591,13 +5627,13 @@
         <v>1154040</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,7 +5656,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5650,7 +5686,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,13 +5701,13 @@
         <v>7499</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>162</v>
+        <v>305</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -5680,13 +5716,13 @@
         <v>8289</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -5695,19 +5731,19 @@
         <v>15788</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
         <v>631</v>
@@ -5716,13 +5752,13 @@
         <v>661598</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="H14" s="7">
         <v>657</v>
@@ -5731,13 +5767,13 @@
         <v>653097</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="M14" s="7">
         <v>1288</v>
@@ -5746,13 +5782,13 @@
         <v>1314695</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5767,13 +5803,13 @@
         <v>669097</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
         <v>665</v>
@@ -5782,13 +5818,13 @@
         <v>661386</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
         <v>1303</v>
@@ -5797,18 +5833,18 @@
         <v>1330483</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5826,7 +5862,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5841,7 +5877,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5856,7 +5892,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5871,13 +5907,13 @@
         <v>24960</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -5886,13 +5922,13 @@
         <v>42604</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>266</v>
+        <v>327</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -5901,19 +5937,19 @@
         <v>67564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>560</v>
@@ -5922,13 +5958,13 @@
         <v>621088</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="H18" s="7">
         <v>563</v>
@@ -5937,28 +5973,28 @@
         <v>606473</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="M18" s="7">
         <v>1123</v>
       </c>
       <c r="N18" s="7">
-        <v>1227561</v>
+        <v>1227562</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5973,13 +6009,13 @@
         <v>646048</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>602</v>
@@ -5988,33 +6024,33 @@
         <v>649077</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6032,7 +6068,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6047,7 +6083,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>180</v>
+        <v>292</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -6062,7 +6098,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6113,13 @@
         <v>23983</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="H21" s="7">
         <v>72</v>
@@ -6092,13 +6128,13 @@
         <v>80539</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="M21" s="7">
         <v>92</v>
@@ -6107,19 +6143,19 @@
         <v>104522</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>337</v>
+        <v>271</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7">
         <v>404</v>
@@ -6128,13 +6164,13 @@
         <v>453935</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="H22" s="7">
         <v>361</v>
@@ -6143,13 +6179,13 @@
         <v>416310</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="M22" s="7">
         <v>765</v>
@@ -6158,13 +6194,13 @@
         <v>870245</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>347</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6179,13 +6215,13 @@
         <v>477918</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23" s="7">
         <v>433</v>
@@ -6194,13 +6230,13 @@
         <v>496849</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M23" s="7">
         <v>857</v>
@@ -6209,18 +6245,18 @@
         <v>974767</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6268,7 +6304,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6283,13 +6319,13 @@
         <v>63492</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="H25" s="7">
         <v>169</v>
@@ -6298,13 +6334,13 @@
         <v>196318</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="M25" s="7">
         <v>238</v>
@@ -6313,19 +6349,19 @@
         <v>259810</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="7">
         <v>558</v>
@@ -6334,13 +6370,13 @@
         <v>527836</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="H26" s="7">
         <v>486</v>
@@ -6349,13 +6385,13 @@
         <v>581613</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="M26" s="7">
         <v>1044</v>
@@ -6364,13 +6400,13 @@
         <v>1109449</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,13 +6421,13 @@
         <v>591328</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27" s="7">
         <v>655</v>
@@ -6400,13 +6436,13 @@
         <v>777931</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M27" s="7">
         <v>1282</v>
@@ -6415,13 +6451,13 @@
         <v>1369259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6444,7 +6480,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6459,7 +6495,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -6474,7 +6510,7 @@
         <v>12</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,13 +6525,13 @@
         <v>121945</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="H29" s="7">
         <v>292</v>
@@ -6504,13 +6540,13 @@
         <v>332083</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="M29" s="7">
         <v>412</v>
@@ -6519,19 +6555,19 @@
         <v>454028</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
         <v>3111</v>
@@ -6540,13 +6576,13 @@
         <v>3272405</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="H30" s="7">
         <v>3046</v>
@@ -6555,13 +6591,13 @@
         <v>3212459</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="M30" s="7">
         <v>6157</v>
@@ -6570,13 +6606,13 @@
         <v>6484864</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6591,13 +6627,13 @@
         <v>3394350</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31" s="7">
         <v>3338</v>
@@ -6606,13 +6642,13 @@
         <v>3544542</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M31" s="7">
         <v>6569</v>
@@ -6621,18 +6657,18 @@
         <v>6938892</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -6654,7 +6690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BEFD1AB-FE4C-4FEB-BBD7-84BCE139513F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA56B5F-9D98-45F1-A35D-AA2B7E47A7EF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6671,7 +6707,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6784,7 +6820,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6799,7 +6835,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>165</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6814,7 +6850,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6835,7 +6871,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6844,13 +6880,13 @@
         <v>8507</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>67</v>
+        <v>306</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6859,19 +6895,19 @@
         <v>8507</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>388</v>
+        <v>41</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>296</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>172</v>
@@ -6880,13 +6916,13 @@
         <v>377679</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6" s="7">
         <v>204</v>
@@ -6895,13 +6931,13 @@
         <v>346450</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="M6" s="7">
         <v>376</v>
@@ -6910,13 +6946,13 @@
         <v>724129</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>393</v>
+        <v>49</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6931,13 +6967,13 @@
         <v>377679</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>207</v>
@@ -6946,13 +6982,13 @@
         <v>354957</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M7" s="7">
         <v>379</v>
@@ -6961,18 +6997,18 @@
         <v>732636</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -6990,7 +7026,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6999,13 +7035,13 @@
         <v>637</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>396</v>
+        <v>294</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7014,13 +7050,13 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>205</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7041,7 +7077,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -7050,13 +7086,13 @@
         <v>5713</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -7065,19 +7101,19 @@
         <v>5713</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>302</v>
@@ -7086,13 +7122,13 @@
         <v>428396</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H10" s="7">
         <v>454</v>
@@ -7101,13 +7137,13 @@
         <v>492865</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>407</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>281</v>
+        <v>190</v>
       </c>
       <c r="M10" s="7">
         <v>756</v>
@@ -7116,13 +7152,13 @@
         <v>921261</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>404</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>34</v>
+        <v>409</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7137,13 +7173,13 @@
         <v>428396</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7">
         <v>461</v>
@@ -7152,13 +7188,13 @@
         <v>499215</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M11" s="7">
         <v>763</v>
@@ -7167,13 +7203,13 @@
         <v>927611</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7196,7 +7232,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7205,13 +7241,13 @@
         <v>27690</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="M12" s="7">
         <v>3</v>
@@ -7220,13 +7256,13 @@
         <v>27690</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7241,13 +7277,13 @@
         <v>6440</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>388</v>
+        <v>41</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>404</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -7256,13 +7292,13 @@
         <v>16219</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -7271,19 +7307,19 @@
         <v>22658</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>402</v>
+        <v>175</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
         <v>539</v>
@@ -7292,13 +7328,13 @@
         <v>549496</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>49</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>187</v>
+        <v>421</v>
       </c>
       <c r="H14" s="7">
         <v>819</v>
@@ -7307,13 +7343,13 @@
         <v>565735</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="M14" s="7">
         <v>1358</v>
@@ -7322,13 +7358,13 @@
         <v>1115231</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7343,13 +7379,13 @@
         <v>555936</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H15" s="7">
         <v>847</v>
@@ -7358,13 +7394,13 @@
         <v>609643</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M15" s="7">
         <v>1392</v>
@@ -7373,18 +7409,18 @@
         <v>1165579</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7411,13 +7447,13 @@
         <v>407</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>174</v>
       </c>
       <c r="M16" s="7">
         <v>1</v>
@@ -7426,13 +7462,13 @@
         <v>407</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>41</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7447,13 +7483,13 @@
         <v>27642</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="H17" s="7">
         <v>97</v>
@@ -7462,13 +7498,13 @@
         <v>68965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="M17" s="7">
         <v>123</v>
@@ -7477,19 +7513,19 @@
         <v>96607</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>637</v>
@@ -7498,13 +7534,13 @@
         <v>694102</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="H18" s="7">
         <v>1032</v>
@@ -7513,13 +7549,13 @@
         <v>670783</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>73</v>
+        <v>440</v>
       </c>
       <c r="M18" s="7">
         <v>1669</v>
@@ -7528,13 +7564,13 @@
         <v>1364883</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7549,13 +7585,13 @@
         <v>721744</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H19" s="7">
         <v>1130</v>
@@ -7564,13 +7600,13 @@
         <v>740155</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M19" s="7">
         <v>1793</v>
@@ -7579,18 +7615,18 @@
         <v>1461898</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7617,13 +7653,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7632,13 +7668,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7653,13 +7689,13 @@
         <v>46650</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="H21" s="7">
         <v>182</v>
@@ -7668,13 +7704,13 @@
         <v>109575</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="M21" s="7">
         <v>233</v>
@@ -7683,19 +7719,19 @@
         <v>156226</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7">
         <v>610</v>
@@ -7704,13 +7740,13 @@
         <v>551405</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="H22" s="7">
         <v>813</v>
@@ -7719,13 +7755,13 @@
         <v>481476</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>110</v>
+        <v>459</v>
       </c>
       <c r="M22" s="7">
         <v>1423</v>
@@ -7734,13 +7770,13 @@
         <v>1032880</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7755,13 +7791,13 @@
         <v>598055</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H23" s="7">
         <v>996</v>
@@ -7770,13 +7806,13 @@
         <v>593813</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M23" s="7">
         <v>1657</v>
@@ -7785,18 +7821,18 @@
         <v>1191868</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -7829,7 +7865,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7844,7 +7880,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7859,13 +7895,13 @@
         <v>104823</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="H25" s="7">
         <v>645</v>
@@ -7874,13 +7910,13 @@
         <v>444312</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="M25" s="7">
         <v>802</v>
@@ -7889,19 +7925,19 @@
         <v>549135</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="7">
         <v>868</v>
@@ -7910,13 +7946,13 @@
         <v>590381</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="H26" s="7">
         <v>1059</v>
@@ -7925,13 +7961,13 @@
         <v>579136</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="M26" s="7">
         <v>1927</v>
@@ -7940,13 +7976,13 @@
         <v>1169517</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>470</v>
+        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7961,13 +7997,13 @@
         <v>695204</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H27" s="7">
         <v>1704</v>
@@ -7976,13 +8012,13 @@
         <v>1023448</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M27" s="7">
         <v>2729</v>
@@ -7991,13 +8027,13 @@
         <v>1718652</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8020,7 +8056,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>6</v>
@@ -8029,13 +8065,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>471</v>
+        <v>482</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>288</v>
+        <v>483</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8044,13 +8080,13 @@
         <v>31497</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>180</v>
+        <v>292</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>206</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,13 +8101,13 @@
         <v>185555</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="H29" s="7">
         <v>958</v>
@@ -8080,13 +8116,13 @@
         <v>653290</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="M29" s="7">
         <v>1198</v>
@@ -8095,19 +8131,19 @@
         <v>838845</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
         <v>3128</v>
@@ -8116,13 +8152,13 @@
         <v>3191459</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="H30" s="7">
         <v>4381</v>
@@ -8131,13 +8167,13 @@
         <v>3136443</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="M30" s="7">
         <v>7509</v>
@@ -8146,13 +8182,13 @@
         <v>6327902</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8167,13 +8203,13 @@
         <v>3377014</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31" s="7">
         <v>5345</v>
@@ -8182,13 +8218,13 @@
         <v>3821230</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M31" s="7">
         <v>8713</v>
@@ -8197,18 +8233,18 @@
         <v>7198244</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1428-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1428-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AFDE566-E3EC-48FC-9782-FA22134E95C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16ED879B-93BF-45BA-B18E-6748E9184F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{06322A09-4A64-4286-8024-D7BF842E4BE9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4A18DEB6-28EA-4DDF-AC46-10F1F0B25225}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="503">
   <si>
     <t>Población con diagnóstico de artritis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -98,1405 +98,1402 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,7%</t>
+    <t>1,82%</t>
   </si>
   <si>
     <t>0,41%</t>
   </si>
   <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,74%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>83,56%</t>
+  </si>
+  <si>
+    <t>79,88%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>49,49%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2012 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,9%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>99,55%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,04%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>75,82%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>76,98%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>58,23%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>99,53%</t>
   </si>
   <si>
     <t>98,57%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>81,03%</t>
+  </si>
+  <si>
+    <t>78,64%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de artritis en 2023 (Tasa respuesta: 99,66%)</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,74%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>83,56%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>57,24%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>42,76%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>60,52%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,03%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2012 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>99,9%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>98,39%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>34,37%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>99,53%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>89,69%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>46,16%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
   </si>
   <si>
     <t>2,03%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de artritis en 2023 (Tasa respuesta: 99,66%)</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,69%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>99,55%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
   </si>
   <si>
     <t>5,49%</t>
@@ -1962,7 +1959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4098A5-11B4-40F5-B9EE-60A09E06C5C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344584CD-1023-4A7D-BB56-2E6970C2A118}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2170,16 +2167,16 @@
         <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>495</v>
@@ -2188,13 +2185,13 @@
         <v>490515</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7">
         <v>487</v>
@@ -2203,13 +2200,13 @@
         <v>465578</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7">
         <v>982</v>
@@ -2218,13 +2215,13 @@
         <v>956092</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2239,13 +2236,13 @@
         <v>494064</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>489</v>
@@ -2254,13 +2251,13 @@
         <v>467489</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>988</v>
@@ -2269,18 +2266,18 @@
         <v>961553</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -2298,7 +2295,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2313,7 +2310,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -2328,7 +2325,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2340,13 @@
         <v>3173</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -2358,13 +2355,13 @@
         <v>7870</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M9" s="7">
         <v>10</v>
@@ -2373,10 +2370,10 @@
         <v>11044</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>47</v>
@@ -2385,7 +2382,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>700</v>
@@ -2430,7 +2427,7 @@
         <v>55</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2445,13 +2442,13 @@
         <v>735489</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>591</v>
@@ -2460,13 +2457,13 @@
         <v>625494</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>1294</v>
@@ -2475,18 +2472,18 @@
         <v>1360982</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2504,7 +2501,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2519,7 +2516,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2534,7 +2531,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2546,13 @@
         <v>3923</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>38</v>
@@ -2564,13 +2561,13 @@
         <v>38808</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -2579,19 +2576,19 @@
         <v>42731</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>609</v>
@@ -2600,13 +2597,13 @@
         <v>634745</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H14" s="7">
         <v>620</v>
@@ -2615,13 +2612,13 @@
         <v>650936</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>1229</v>
@@ -2630,13 +2627,13 @@
         <v>1285681</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,13 +2648,13 @@
         <v>638668</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>658</v>
@@ -2666,13 +2663,13 @@
         <v>689744</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>1271</v>
@@ -2681,18 +2678,18 @@
         <v>1328412</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2710,7 +2707,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2797,7 +2794,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>460</v>
@@ -2857,13 +2854,13 @@
         <v>519147</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>502</v>
@@ -2872,13 +2869,13 @@
         <v>515642</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>986</v>
@@ -2887,13 +2884,13 @@
         <v>1034789</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,7 +3000,7 @@
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>328</v>
@@ -3063,13 +3060,13 @@
         <v>386710</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>396</v>
@@ -3078,13 +3075,13 @@
         <v>403986</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>788</v>
@@ -3093,13 +3090,13 @@
         <v>790696</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3137,7 +3134,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -3209,7 +3206,7 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>377</v>
@@ -3269,13 +3266,13 @@
         <v>502466</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>661</v>
@@ -3284,13 +3281,13 @@
         <v>676842</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>1184</v>
@@ -3299,13 +3296,13 @@
         <v>1179308</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3406,31 +3403,31 @@
         <v>146</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>85</v>
+        <v>147</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>2969</v>
       </c>
       <c r="D30" s="7">
-        <v>3039986</v>
+        <v>3039985</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H30" s="7">
         <v>2720</v>
@@ -3439,13 +3436,13 @@
         <v>2782645</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M30" s="7">
         <v>5689</v>
@@ -3454,13 +3451,13 @@
         <v>5822630</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,16 +3469,16 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>3297</v>
@@ -3490,13 +3487,13 @@
         <v>3379198</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>6511</v>
@@ -3505,18 +3502,18 @@
         <v>6655741</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3538,7 +3535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD46BAD-3811-4AF5-84E8-ECBE56B45D89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3280EEFF-8C47-4DAF-A8FA-8B7F15D1BD16}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3555,7 +3552,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3668,7 +3665,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3683,7 +3680,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3698,7 +3695,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3710,13 @@
         <v>914</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -3728,13 +3725,13 @@
         <v>2198</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -3743,19 +3740,19 @@
         <v>3112</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>445</v>
@@ -3764,13 +3761,13 @@
         <v>453232</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>167</v>
+        <v>34</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>168</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
         <v>419</v>
@@ -3785,7 +3782,7 @@
         <v>170</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7">
         <v>864</v>
@@ -3815,13 +3812,13 @@
         <v>454146</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>421</v>
@@ -3830,13 +3827,13 @@
         <v>430230</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>867</v>
@@ -3845,18 +3842,18 @@
         <v>884376</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -3874,7 +3871,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3904,7 +3901,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,16 +3949,16 @@
         <v>179</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>180</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>660</v>
@@ -3970,13 +3967,13 @@
         <v>678336</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>568</v>
@@ -3985,13 +3982,13 @@
         <v>607307</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>1228</v>
@@ -4000,13 +3997,13 @@
         <v>1285643</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>189</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4018,13 @@
         <v>687087</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>571</v>
@@ -4036,13 +4033,13 @@
         <v>610255</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>1238</v>
@@ -4051,18 +4048,18 @@
         <v>1297342</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4080,7 +4077,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4095,7 +4092,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4110,7 +4107,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,13 +4122,13 @@
         <v>6783</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>192</v>
+        <v>160</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -4140,13 +4137,13 @@
         <v>13887</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -4155,19 +4152,19 @@
         <v>20671</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>644</v>
@@ -4176,13 +4173,13 @@
         <v>675080</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H14" s="7">
         <v>652</v>
@@ -4191,13 +4188,13 @@
         <v>695687</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M14" s="7">
         <v>1296</v>
@@ -4206,13 +4203,13 @@
         <v>1370766</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,13 +4224,13 @@
         <v>681863</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>666</v>
@@ -4242,13 +4239,13 @@
         <v>709574</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>1317</v>
@@ -4257,18 +4254,18 @@
         <v>1391437</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4286,7 +4283,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4301,7 +4298,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -4316,7 +4313,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4331,13 +4328,13 @@
         <v>11641</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -4346,13 +4343,13 @@
         <v>48252</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M17" s="7">
         <v>53</v>
@@ -4361,19 +4358,19 @@
         <v>59893</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>538</v>
@@ -4382,13 +4379,13 @@
         <v>602976</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="H18" s="7">
         <v>495</v>
@@ -4397,13 +4394,13 @@
         <v>566012</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M18" s="7">
         <v>1033</v>
@@ -4412,13 +4409,13 @@
         <v>1168987</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4430,13 @@
         <v>614617</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>538</v>
@@ -4448,13 +4445,13 @@
         <v>614264</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>1086</v>
@@ -4463,13 +4460,13 @@
         <v>1228880</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,7 +4504,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4537,13 +4534,13 @@
         <v>39956</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H21" s="7">
         <v>83</v>
@@ -4552,13 +4549,13 @@
         <v>90938</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M21" s="7">
         <v>120</v>
@@ -4567,19 +4564,19 @@
         <v>130895</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>356</v>
@@ -4588,13 +4585,13 @@
         <v>389473</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H22" s="7">
         <v>323</v>
@@ -4603,13 +4600,13 @@
         <v>356862</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="M22" s="7">
         <v>679</v>
@@ -4618,13 +4615,13 @@
         <v>746334</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4636,13 @@
         <v>429429</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>406</v>
@@ -4654,13 +4651,13 @@
         <v>447800</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>799</v>
@@ -4669,13 +4666,13 @@
         <v>877229</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,7 +4710,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -4743,13 +4740,13 @@
         <v>108259</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H25" s="7">
         <v>260</v>
@@ -4758,13 +4755,13 @@
         <v>282453</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M25" s="7">
         <v>358</v>
@@ -4773,19 +4770,19 @@
         <v>390711</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>406</v>
@@ -4794,13 +4791,13 @@
         <v>451378</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H26" s="7">
         <v>434</v>
@@ -4809,13 +4806,13 @@
         <v>460522</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M26" s="7">
         <v>840</v>
@@ -4824,13 +4821,13 @@
         <v>911901</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4842,13 @@
         <v>559637</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>694</v>
@@ -4860,13 +4857,13 @@
         <v>742975</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>1198</v>
@@ -4875,13 +4872,13 @@
         <v>1302612</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,13 +4946,13 @@
         <v>176304</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H29" s="7">
         <v>405</v>
@@ -4964,13 +4961,13 @@
         <v>440677</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M29" s="7">
         <v>565</v>
@@ -4979,19 +4976,19 @@
         <v>616981</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>3049</v>
@@ -5000,13 +4997,13 @@
         <v>3250475</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H30" s="7">
         <v>2891</v>
@@ -5015,28 +5012,28 @@
         <v>3114421</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M30" s="7">
         <v>5940</v>
       </c>
       <c r="N30" s="7">
-        <v>6364897</v>
+        <v>6364896</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5048,13 @@
         <v>3426779</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>3296</v>
@@ -5066,33 +5063,33 @@
         <v>3555098</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>6505</v>
       </c>
       <c r="N31" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -5114,7 +5111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05173EDA-629F-4E38-929A-22EBDDABE868}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B289C0-7534-4D0F-A5D6-8B980AC445B3}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5131,7 +5128,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5259,7 +5256,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5304,13 +5301,13 @@
         <v>1878</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -5319,19 +5316,19 @@
         <v>1878</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>45</v>
+        <v>284</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>393</v>
@@ -5340,13 +5337,13 @@
         <v>419463</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="7">
         <v>402</v>
@@ -5355,13 +5352,13 @@
         <v>393877</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>288</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="7">
         <v>795</v>
@@ -5370,13 +5367,13 @@
         <v>813340</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>54</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5388,13 @@
         <v>419463</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>404</v>
@@ -5406,13 +5403,13 @@
         <v>395755</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>797</v>
@@ -5421,18 +5418,18 @@
         <v>815218</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -5537,7 +5534,7 @@
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>565</v>
@@ -5552,7 +5549,7 @@
         <v>297</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10" s="7">
         <v>577</v>
@@ -5567,7 +5564,7 @@
         <v>299</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M10" s="7">
         <v>1142</v>
@@ -5597,13 +5594,13 @@
         <v>590496</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>579</v>
@@ -5612,13 +5609,13 @@
         <v>563544</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>1146</v>
@@ -5627,18 +5624,18 @@
         <v>1154040</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5671,7 +5668,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5686,7 +5683,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5719,10 +5716,10 @@
         <v>307</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -5731,19 +5728,19 @@
         <v>15788</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>631</v>
@@ -5752,13 +5749,13 @@
         <v>661598</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H14" s="7">
         <v>657</v>
@@ -5767,13 +5764,13 @@
         <v>653097</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>318</v>
+        <v>32</v>
       </c>
       <c r="M14" s="7">
         <v>1288</v>
@@ -5782,13 +5779,13 @@
         <v>1314695</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>319</v>
+        <v>33</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5800,13 @@
         <v>669097</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>665</v>
@@ -5818,13 +5815,13 @@
         <v>661386</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>1303</v>
@@ -5833,18 +5830,18 @@
         <v>1330483</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5877,7 +5874,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5907,13 +5904,13 @@
         <v>24960</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H17" s="7">
         <v>39</v>
@@ -5922,13 +5919,13 @@
         <v>42604</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -5937,19 +5934,19 @@
         <v>67564</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>560</v>
@@ -5958,13 +5955,13 @@
         <v>621088</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H18" s="7">
         <v>563</v>
@@ -5973,28 +5970,28 @@
         <v>606473</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M18" s="7">
         <v>1123</v>
       </c>
       <c r="N18" s="7">
-        <v>1227562</v>
+        <v>1227561</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6009,13 +6006,13 @@
         <v>646048</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>602</v>
@@ -6024,28 +6021,28 @@
         <v>649077</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>1184</v>
       </c>
       <c r="N19" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6068,7 +6065,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6098,7 +6095,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6113,13 +6110,13 @@
         <v>23983</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H21" s="7">
         <v>72</v>
@@ -6128,13 +6125,13 @@
         <v>80539</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="M21" s="7">
         <v>92</v>
@@ -6143,19 +6140,19 @@
         <v>104522</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>271</v>
+        <v>343</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>404</v>
@@ -6164,13 +6161,13 @@
         <v>453935</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="H22" s="7">
         <v>361</v>
@@ -6179,13 +6176,13 @@
         <v>416310</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="M22" s="7">
         <v>765</v>
@@ -6194,13 +6191,13 @@
         <v>870245</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,13 +6212,13 @@
         <v>477918</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>433</v>
@@ -6230,13 +6227,13 @@
         <v>496849</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>857</v>
@@ -6245,13 +6242,13 @@
         <v>974767</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,7 +6271,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6289,7 +6286,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -6304,7 +6301,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6319,13 +6316,13 @@
         <v>63492</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H25" s="7">
         <v>169</v>
@@ -6334,13 +6331,13 @@
         <v>196318</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M25" s="7">
         <v>238</v>
@@ -6349,19 +6346,19 @@
         <v>259810</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>558</v>
@@ -6370,13 +6367,13 @@
         <v>527836</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H26" s="7">
         <v>486</v>
@@ -6385,13 +6382,13 @@
         <v>581613</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M26" s="7">
         <v>1044</v>
@@ -6400,13 +6397,13 @@
         <v>1109449</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6421,13 +6418,13 @@
         <v>591328</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>655</v>
@@ -6436,13 +6433,13 @@
         <v>777931</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>1282</v>
@@ -6451,13 +6448,13 @@
         <v>1369259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6525,13 +6522,13 @@
         <v>121945</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H29" s="7">
         <v>292</v>
@@ -6540,13 +6537,13 @@
         <v>332083</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M29" s="7">
         <v>412</v>
@@ -6555,19 +6552,19 @@
         <v>454028</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>381</v>
+        <v>265</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>3111</v>
@@ -6576,13 +6573,13 @@
         <v>3272405</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="H30" s="7">
         <v>3046</v>
@@ -6591,13 +6588,13 @@
         <v>3212459</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="M30" s="7">
         <v>6157</v>
@@ -6606,13 +6603,13 @@
         <v>6484864</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>391</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,13 +6624,13 @@
         <v>3394350</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>3338</v>
@@ -6642,13 +6639,13 @@
         <v>3544542</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>6569</v>
@@ -6657,18 +6654,18 @@
         <v>6938892</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -6690,7 +6687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA56B5F-9D98-45F1-A35D-AA2B7E47A7EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4002EC01-9027-4C7F-A238-D23A5A67E7CB}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6707,7 +6704,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6820,7 +6817,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6835,7 +6832,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>198</v>
+        <v>390</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6850,7 +6847,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6871,7 +6868,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -6880,13 +6877,13 @@
         <v>8507</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>306</v>
+        <v>391</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -6895,19 +6892,19 @@
         <v>8507</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>41</v>
+        <v>394</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="7">
         <v>172</v>
@@ -6916,13 +6913,13 @@
         <v>377679</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H6" s="7">
         <v>204</v>
@@ -6931,7 +6928,7 @@
         <v>346450</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>314</v>
+        <v>397</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>398</v>
@@ -6946,13 +6943,13 @@
         <v>724129</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>49</v>
+        <v>400</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6967,13 +6964,13 @@
         <v>377679</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H7" s="7">
         <v>207</v>
@@ -6982,13 +6979,13 @@
         <v>354957</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>379</v>
@@ -6997,18 +6994,18 @@
         <v>732636</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -7026,7 +7023,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -7041,7 +7038,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -7050,13 +7047,13 @@
         <v>637</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,7 +7074,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -7086,13 +7083,13 @@
         <v>5713</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -7101,19 +7098,19 @@
         <v>5713</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" s="7">
         <v>302</v>
@@ -7122,13 +7119,13 @@
         <v>428396</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>399</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H10" s="7">
         <v>454</v>
@@ -7137,13 +7134,13 @@
         <v>492865</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
         <v>756</v>
@@ -7152,10 +7149,10 @@
         <v>921261</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>408</v>
+        <v>317</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>409</v>
@@ -7173,13 +7170,13 @@
         <v>428396</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H11" s="7">
         <v>461</v>
@@ -7188,13 +7185,13 @@
         <v>499215</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M11" s="7">
         <v>763</v>
@@ -7203,18 +7200,18 @@
         <v>927611</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7232,7 +7229,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -7277,13 +7274,13 @@
         <v>6440</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>394</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -7319,7 +7316,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7">
         <v>539</v>
@@ -7328,13 +7325,13 @@
         <v>549496</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
+        <v>400</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>420</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>421</v>
+        <v>198</v>
       </c>
       <c r="H14" s="7">
         <v>819</v>
@@ -7343,13 +7340,13 @@
         <v>565735</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M14" s="7">
         <v>1358</v>
@@ -7358,13 +7355,13 @@
         <v>1115231</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>425</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>426</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7379,13 +7376,13 @@
         <v>555936</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H15" s="7">
         <v>847</v>
@@ -7394,13 +7391,13 @@
         <v>609643</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M15" s="7">
         <v>1392</v>
@@ -7409,18 +7406,18 @@
         <v>1165579</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7438,7 +7435,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -7483,13 +7480,13 @@
         <v>27642</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>429</v>
       </c>
       <c r="H17" s="7">
         <v>97</v>
@@ -7498,13 +7495,13 @@
         <v>68965</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>430</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>431</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M17" s="7">
         <v>123</v>
@@ -7513,19 +7510,19 @@
         <v>96607</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>434</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>435</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" s="7">
         <v>637</v>
@@ -7534,13 +7531,13 @@
         <v>694102</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H18" s="7">
         <v>1032</v>
@@ -7549,13 +7546,13 @@
         <v>670783</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M18" s="7">
         <v>1669</v>
@@ -7564,13 +7561,13 @@
         <v>1364883</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7585,13 +7582,13 @@
         <v>721744</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19" s="7">
         <v>1130</v>
@@ -7600,13 +7597,13 @@
         <v>740155</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M19" s="7">
         <v>1793</v>
@@ -7615,13 +7612,13 @@
         <v>1461898</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7644,7 +7641,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7653,13 +7650,13 @@
         <v>2762</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -7668,13 +7665,13 @@
         <v>2762</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>178</v>
+        <v>443</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7686,13 @@
         <v>46650</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="H21" s="7">
         <v>182</v>
@@ -7704,13 +7701,13 @@
         <v>109575</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>448</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>450</v>
       </c>
       <c r="M21" s="7">
         <v>233</v>
@@ -7719,19 +7716,19 @@
         <v>156226</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" s="7">
         <v>610</v>
@@ -7740,13 +7737,13 @@
         <v>551405</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="H22" s="7">
         <v>813</v>
@@ -7755,13 +7752,13 @@
         <v>481476</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>459</v>
       </c>
       <c r="M22" s="7">
         <v>1423</v>
@@ -7770,13 +7767,13 @@
         <v>1032880</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7791,13 +7788,13 @@
         <v>598055</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H23" s="7">
         <v>996</v>
@@ -7806,13 +7803,13 @@
         <v>593813</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M23" s="7">
         <v>1657</v>
@@ -7821,13 +7818,13 @@
         <v>1191868</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7865,7 +7862,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7880,7 +7877,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7895,13 +7892,13 @@
         <v>104823</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>465</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>466</v>
       </c>
       <c r="H25" s="7">
         <v>645</v>
@@ -7910,13 +7907,13 @@
         <v>444312</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>468</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>469</v>
       </c>
       <c r="M25" s="7">
         <v>802</v>
@@ -7925,19 +7922,19 @@
         <v>549135</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>470</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" s="7">
         <v>868</v>
@@ -7946,13 +7943,13 @@
         <v>590381</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>473</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>474</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>475</v>
       </c>
       <c r="H26" s="7">
         <v>1059</v>
@@ -7961,13 +7958,13 @@
         <v>579136</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>476</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>477</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="M26" s="7">
         <v>1927</v>
@@ -7976,13 +7973,13 @@
         <v>1169517</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>479</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7997,13 +7994,13 @@
         <v>695204</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H27" s="7">
         <v>1704</v>
@@ -8012,13 +8009,13 @@
         <v>1023448</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M27" s="7">
         <v>2729</v>
@@ -8027,13 +8024,13 @@
         <v>1718652</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8065,13 +8062,13 @@
         <v>31497</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>480</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>482</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8083,10 +8080,10 @@
         <v>292</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>312</v>
+        <v>484</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8101,13 +8098,13 @@
         <v>185555</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="H29" s="7">
         <v>958</v>
@@ -8116,13 +8113,13 @@
         <v>653290</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>490</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>491</v>
       </c>
       <c r="M29" s="7">
         <v>1198</v>
@@ -8131,19 +8128,19 @@
         <v>838845</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>493</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C30" s="7">
         <v>3128</v>
@@ -8152,13 +8149,13 @@
         <v>3191459</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>496</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>497</v>
       </c>
       <c r="H30" s="7">
         <v>4381</v>
@@ -8167,13 +8164,13 @@
         <v>3136443</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>498</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>499</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>500</v>
       </c>
       <c r="M30" s="7">
         <v>7509</v>
@@ -8182,13 +8179,13 @@
         <v>6327902</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>501</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>502</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8203,13 +8200,13 @@
         <v>3377014</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H31" s="7">
         <v>5345</v>
@@ -8218,13 +8215,13 @@
         <v>3821230</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M31" s="7">
         <v>8713</v>
@@ -8233,18 +8230,18 @@
         <v>7198244</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1428-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1428-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7E9FE69-A434-4C84-8D00-7C786F248C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0AAB35E7-ABA3-4655-A01D-46B27F8BB2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D204E850-7318-4A1F-9576-5316F29A8F8D}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{521CC21F-E371-4D22-A00B-94FA9196C2E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="544">
   <si>
     <t>Población con diagnóstico de artritis en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -134,7 +134,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,43%</t>
@@ -191,7 +191,7 @@
     <t>99,62%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,61%</t>
@@ -248,7 +248,7 @@
     <t>97,6%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>4,91%</t>
@@ -305,7 +305,7 @@
     <t>91,99%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>16,44%</t>
@@ -362,61 +362,118 @@
     <t>80,48%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>50,73%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>55,12%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>52,96%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>59,43%</t>
+  </si>
+  <si>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>54,5%</t>
+  </si>
+  <si>
+    <t>65,38%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>45,5%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
   </si>
   <si>
     <t>7,22%</t>
@@ -707,58 +764,112 @@
     <t>87,44%</t>
   </si>
   <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>84,04%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>58,75%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>70,01%</t>
-  </si>
-  <si>
-    <t>67,47%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>32,69%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>62,58%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>37,54%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
   </si>
   <si>
     <t>5,14%</t>
@@ -1037,58 +1148,112 @@
     <t>91,25%</t>
   </si>
   <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>74,76%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>83,43%</t>
+  </si>
+  <si>
+    <t>80,51%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>81,56%</t>
   </si>
   <si>
     <t>3,59%</t>
@@ -1151,313 +1316,361 @@
     <t>1,11%</t>
   </si>
   <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>6,77%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>99,37%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>96,54%</t>
-  </si>
-  <si>
-    <t>99,7%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>99,79%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>81,46%</t>
-  </si>
-  <si>
-    <t>78,99%</t>
-  </si>
-  <si>
-    <t>83,96%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>62,85%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>89,81%</t>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>83,93%</t>
+  </si>
+  <si>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>60,45%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>68,54%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
 </sst>
 </file>
@@ -1869,8 +2082,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{313E9843-CD71-435C-9250-21B7E91D4B5D}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89F359D6-92DA-4979-839B-B9EEBFD062A2}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2762,10 +2975,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>146</v>
+        <v>68</v>
       </c>
       <c r="D19" s="7">
-        <v>136848</v>
+        <v>64189</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>108</v>
@@ -2777,10 +2990,10 @@
         <v>110</v>
       </c>
       <c r="H19" s="7">
-        <v>345</v>
+        <v>173</v>
       </c>
       <c r="I19" s="7">
-        <v>359763</v>
+        <v>161329</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>111</v>
@@ -2792,10 +3005,10 @@
         <v>113</v>
       </c>
       <c r="M19" s="7">
-        <v>491</v>
+        <v>241</v>
       </c>
       <c r="N19" s="7">
-        <v>496610</v>
+        <v>225518</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>114</v>
@@ -2813,10 +3026,10 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>377</v>
+        <v>235</v>
       </c>
       <c r="D20" s="7">
-        <v>365618</v>
+        <v>228394</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>117</v>
@@ -2828,10 +3041,10 @@
         <v>119</v>
       </c>
       <c r="H20" s="7">
-        <v>316</v>
+        <v>198</v>
       </c>
       <c r="I20" s="7">
-        <v>317079</v>
+        <v>181605</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>120</v>
@@ -2843,10 +3056,10 @@
         <v>122</v>
       </c>
       <c r="M20" s="7">
-        <v>693</v>
+        <v>433</v>
       </c>
       <c r="N20" s="7">
-        <v>682698</v>
+        <v>409999</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>123</v>
@@ -2864,10 +3077,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2879,10 +3092,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I21" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -2894,10 +3107,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N21" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2911,55 +3124,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="D22" s="7">
-        <v>236558</v>
+        <v>72659</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
-        <v>577</v>
+        <v>172</v>
       </c>
       <c r="I22" s="7">
-        <v>596553</v>
+        <v>198434</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
-        <v>822</v>
+        <v>250</v>
       </c>
       <c r="N22" s="7">
-        <v>833111</v>
+        <v>271093</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2968,49 +3181,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>2969</v>
+        <v>142</v>
       </c>
       <c r="D23" s="7">
-        <v>3039986</v>
+        <v>137224</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
-        <v>2720</v>
+        <v>118</v>
       </c>
       <c r="I23" s="7">
-        <v>2782645</v>
+        <v>135474</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
-        <v>5689</v>
+        <v>260</v>
       </c>
       <c r="N23" s="7">
-        <v>5822629</v>
+        <v>272698</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3019,63 +3232,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>220</v>
+      </c>
+      <c r="D24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>290</v>
+      </c>
+      <c r="I24" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>510</v>
+      </c>
+      <c r="N24" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>245</v>
+      </c>
+      <c r="D25" s="7">
+        <v>236558</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="7">
+        <v>577</v>
+      </c>
+      <c r="I25" s="7">
+        <v>596553</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M25" s="7">
+        <v>822</v>
+      </c>
+      <c r="N25" s="7">
+        <v>833111</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>2969</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3039985</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2720</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2782644</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5689</v>
+      </c>
+      <c r="N26" s="7">
+        <v>5822630</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="D24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3297</v>
       </c>
-      <c r="I24" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3379197</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6511</v>
       </c>
-      <c r="N24" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>6655741</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3088,8 +3457,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11F4E18-751F-4FCC-9851-A48AB1A93BA0}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B356F4-1AA5-4565-895F-E4E8CE05865F}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3105,7 +3474,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3212,13 +3581,13 @@
         <v>914</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3227,13 +3596,13 @@
         <v>2198</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>148</v>
+        <v>167</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -3242,13 +3611,13 @@
         <v>3112</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,10 +3632,10 @@
         <v>453232</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>26</v>
@@ -3278,10 +3647,10 @@
         <v>428032</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>26</v>
@@ -3293,13 +3662,13 @@
         <v>881264</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,13 +3736,13 @@
         <v>8751</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3382,10 +3751,10 @@
         <v>2948</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>40</v>
@@ -3397,13 +3766,13 @@
         <v>11699</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,13 +3787,13 @@
         <v>678336</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="H8" s="7">
         <v>568</v>
@@ -3433,13 +3802,13 @@
         <v>607307</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>1228</v>
@@ -3448,13 +3817,13 @@
         <v>1285643</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3891,13 @@
         <v>6783</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="H10" s="7">
         <v>14</v>
@@ -3537,13 +3906,13 @@
         <v>13887</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -3552,13 +3921,13 @@
         <v>20671</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,10 +3942,10 @@
         <v>675080</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>24</v>
@@ -3588,13 +3957,13 @@
         <v>695687</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>1296</v>
@@ -3603,13 +3972,13 @@
         <v>1370766</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,13 +4046,13 @@
         <v>11641</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="H13" s="7">
         <v>43</v>
@@ -3692,13 +4061,13 @@
         <v>48252</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>211</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -3707,13 +4076,13 @@
         <v>59893</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3728,13 +4097,13 @@
         <v>602976</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="H14" s="7">
         <v>495</v>
@@ -3743,13 +4112,13 @@
         <v>566012</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="M14" s="7">
         <v>1033</v>
@@ -3758,13 +4127,13 @@
         <v>1168987</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +4201,13 @@
         <v>39956</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
@@ -3847,13 +4216,13 @@
         <v>90938</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="M16" s="7">
         <v>120</v>
@@ -3862,13 +4231,13 @@
         <v>130895</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>211</v>
+        <v>230</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +4252,13 @@
         <v>389473</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>214</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
         <v>323</v>
@@ -3898,10 +4267,10 @@
         <v>356862</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>98</v>
@@ -3913,13 +4282,13 @@
         <v>746334</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>221</v>
+        <v>240</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3981,49 +4350,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="D19" s="7">
-        <v>108259</v>
+        <v>50959</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="H19" s="7">
-        <v>260</v>
+        <v>109</v>
       </c>
       <c r="I19" s="7">
-        <v>282453</v>
+        <v>115726</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="M19" s="7">
-        <v>358</v>
+        <v>154</v>
       </c>
       <c r="N19" s="7">
-        <v>390711</v>
+        <v>166684</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,49 +4401,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>406</v>
+        <v>237</v>
       </c>
       <c r="D20" s="7">
-        <v>451378</v>
+        <v>258827</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="H20" s="7">
-        <v>434</v>
+        <v>235</v>
       </c>
       <c r="I20" s="7">
-        <v>460522</v>
+        <v>238270</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>236</v>
+        <v>255</v>
       </c>
       <c r="M20" s="7">
-        <v>840</v>
+        <v>472</v>
       </c>
       <c r="N20" s="7">
-        <v>911901</v>
+        <v>497098</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>239</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,10 +4452,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -4098,10 +4467,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I21" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4113,10 +4482,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N21" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4130,55 +4499,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="D22" s="7">
-        <v>176304</v>
+        <v>57300</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>240</v>
+        <v>259</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="H22" s="7">
-        <v>405</v>
+        <v>151</v>
       </c>
       <c r="I22" s="7">
-        <v>440677</v>
+        <v>166727</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>244</v>
+        <v>263</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>245</v>
+        <v>264</v>
       </c>
       <c r="M22" s="7">
-        <v>565</v>
+        <v>204</v>
       </c>
       <c r="N22" s="7">
-        <v>616981</v>
+        <v>224027</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>246</v>
+        <v>265</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>247</v>
+        <v>266</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>248</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,49 +4556,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3049</v>
+        <v>169</v>
       </c>
       <c r="D23" s="7">
-        <v>3250475</v>
+        <v>192551</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="H23" s="7">
-        <v>2891</v>
+        <v>199</v>
       </c>
       <c r="I23" s="7">
-        <v>3114421</v>
+        <v>222252</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="M23" s="7">
-        <v>5940</v>
+        <v>368</v>
       </c>
       <c r="N23" s="7">
-        <v>6364896</v>
+        <v>414803</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>257</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4238,63 +4607,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>222</v>
+      </c>
+      <c r="D24" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>350</v>
+      </c>
+      <c r="I24" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>572</v>
+      </c>
+      <c r="N24" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>160</v>
+      </c>
+      <c r="D25" s="7">
+        <v>176304</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H25" s="7">
+        <v>405</v>
+      </c>
+      <c r="I25" s="7">
+        <v>440677</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="M25" s="7">
+        <v>565</v>
+      </c>
+      <c r="N25" s="7">
+        <v>616981</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3049</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3250475</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H26" s="7">
+        <v>2891</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3114421</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="M26" s="7">
+        <v>5940</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6364896</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3209</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3426779</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3296</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3555098</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6505</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6981877</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4307,8 +4832,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3F4D3B-73DE-407D-B52E-8594C4FFBF74}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A4FB9B-142B-4F50-A0A3-BB77D7E55C94}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4324,7 +4849,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>258</v>
+        <v>295</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4434,10 +4959,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>260</v>
+        <v>297</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4446,7 +4971,7 @@
         <v>1878</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>261</v>
+        <v>298</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
@@ -4461,13 +4986,13 @@
         <v>1878</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>262</v>
+        <v>299</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,7 +5010,7 @@
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -4497,7 +5022,7 @@
         <v>393877</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>265</v>
+        <v>302</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>48</v>
@@ -4512,10 +5037,10 @@
         <v>813340</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>266</v>
+        <v>303</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>267</v>
+        <v>304</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>26</v>
@@ -4586,13 +5111,13 @@
         <v>2011</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>268</v>
+        <v>305</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>269</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4601,13 +5126,13 @@
         <v>2454</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>270</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4616,13 +5141,13 @@
         <v>4465</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>271</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>272</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>273</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,10 +5162,10 @@
         <v>588485</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>275</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>26</v>
@@ -4652,10 +5177,10 @@
         <v>561090</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>26</v>
@@ -4667,13 +5192,13 @@
         <v>1149575</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>277</v>
+        <v>314</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>278</v>
+        <v>315</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,13 +5266,13 @@
         <v>7499</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="H10" s="7">
         <v>8</v>
@@ -4756,13 +5281,13 @@
         <v>8289</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -4771,13 +5296,13 @@
         <v>15788</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>287</v>
+        <v>324</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>288</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +5317,13 @@
         <v>661598</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="H11" s="7">
         <v>657</v>
@@ -4807,13 +5332,13 @@
         <v>653097</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="M11" s="7">
         <v>1288</v>
@@ -4822,13 +5347,13 @@
         <v>1314695</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4896,13 +5421,13 @@
         <v>24960</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="H13" s="7">
         <v>39</v>
@@ -4911,13 +5436,13 @@
         <v>42604</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -4926,13 +5451,13 @@
         <v>67564</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4947,13 +5472,13 @@
         <v>621088</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="H14" s="7">
         <v>563</v>
@@ -4962,13 +5487,13 @@
         <v>606473</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="M14" s="7">
         <v>1123</v>
@@ -4977,13 +5502,13 @@
         <v>1227561</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,13 +5576,13 @@
         <v>23983</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="H16" s="7">
         <v>72</v>
@@ -5066,13 +5591,13 @@
         <v>80539</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
       <c r="M16" s="7">
         <v>92</v>
@@ -5081,13 +5606,13 @@
         <v>104522</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,13 +5627,13 @@
         <v>453935</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="H17" s="7">
         <v>361</v>
@@ -5117,13 +5642,13 @@
         <v>416310</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="M17" s="7">
         <v>765</v>
@@ -5132,13 +5657,13 @@
         <v>870245</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,49 +5725,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D19" s="7">
-        <v>63492</v>
+        <v>24531</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="H19" s="7">
-        <v>169</v>
+        <v>90</v>
       </c>
       <c r="I19" s="7">
-        <v>196318</v>
+        <v>93459</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="M19" s="7">
-        <v>238</v>
+        <v>113</v>
       </c>
       <c r="N19" s="7">
-        <v>259810</v>
+        <v>117990</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5251,49 +5776,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>558</v>
+        <v>302</v>
       </c>
       <c r="D20" s="7">
-        <v>527836</v>
+        <v>309799</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="H20" s="7">
-        <v>486</v>
+        <v>264</v>
       </c>
       <c r="I20" s="7">
-        <v>581613</v>
+        <v>284303</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="M20" s="7">
-        <v>1044</v>
+        <v>566</v>
       </c>
       <c r="N20" s="7">
-        <v>1109449</v>
+        <v>594102</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5302,10 +5827,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -5317,10 +5842,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I21" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -5332,10 +5857,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N21" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5349,55 +5874,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="D22" s="7">
-        <v>121945</v>
+        <v>38961</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
       <c r="H22" s="7">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="I22" s="7">
-        <v>332083</v>
+        <v>102859</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="M22" s="7">
-        <v>412</v>
+        <v>125</v>
       </c>
       <c r="N22" s="7">
-        <v>454028</v>
+        <v>141820</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,49 +5931,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3111</v>
+        <v>256</v>
       </c>
       <c r="D23" s="7">
-        <v>3272405</v>
+        <v>218037</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
       <c r="H23" s="7">
-        <v>3046</v>
+        <v>222</v>
       </c>
       <c r="I23" s="7">
-        <v>3212459</v>
+        <v>297310</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>363</v>
+        <v>400</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>364</v>
+        <v>401</v>
       </c>
       <c r="M23" s="7">
-        <v>6157</v>
+        <v>478</v>
       </c>
       <c r="N23" s="7">
-        <v>6484864</v>
+        <v>515347</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>365</v>
+        <v>402</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>367</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,63 +5982,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>302</v>
+      </c>
+      <c r="D24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>301</v>
+      </c>
+      <c r="I24" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>603</v>
+      </c>
+      <c r="N24" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>120</v>
+      </c>
+      <c r="D25" s="7">
+        <v>121945</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="H25" s="7">
+        <v>292</v>
+      </c>
+      <c r="I25" s="7">
+        <v>332083</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="M25" s="7">
+        <v>412</v>
+      </c>
+      <c r="N25" s="7">
+        <v>454028</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3111</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3272405</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H26" s="7">
+        <v>3046</v>
+      </c>
+      <c r="I26" s="7">
+        <v>3212459</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="M26" s="7">
+        <v>6157</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6484864</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>3338</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>3544542</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>6569</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>6938892</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5526,8 +6207,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D6C805E-E45F-483A-AD93-850A2E7E5AF3}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5A0D51B-B05D-46D2-A79D-DBB7B5058CD6}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5543,7 +6224,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>368</v>
+        <v>423</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5653,40 +6334,40 @@
         <v>15</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>369</v>
+        <v>424</v>
       </c>
       <c r="H4" s="7">
         <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>8507</v>
+        <v>7000</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>58</v>
+        <v>425</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>370</v>
+        <v>426</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>371</v>
+        <v>427</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>8507</v>
+        <v>7000</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>372</v>
+        <v>428</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>373</v>
+        <v>299</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>374</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,13 +6379,13 @@
         <v>172</v>
       </c>
       <c r="D5" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>375</v>
+        <v>430</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -5713,31 +6394,31 @@
         <v>204</v>
       </c>
       <c r="I5" s="7">
-        <v>346450</v>
+        <v>306200</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>68</v>
+        <v>431</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>376</v>
+        <v>432</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="M5" s="7">
         <v>376</v>
       </c>
       <c r="N5" s="7">
-        <v>724129</v>
+        <v>706187</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>378</v>
+        <v>434</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>380</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5749,7 +6430,7 @@
         <v>172</v>
       </c>
       <c r="D6" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5764,7 +6445,7 @@
         <v>207</v>
       </c>
       <c r="I6" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5779,7 +6460,7 @@
         <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5808,40 +6489,40 @@
         <v>15</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>259</v>
+        <v>296</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>370</v>
+        <v>436</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
       </c>
       <c r="I7" s="7">
-        <v>5713</v>
+        <v>5320</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>437</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>381</v>
+        <v>169</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>382</v>
+        <v>438</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
       </c>
       <c r="N7" s="7">
-        <v>5713</v>
+        <v>5320</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>383</v>
+        <v>17</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>384</v>
+        <v>439</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>385</v>
+        <v>440</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5853,13 +6534,13 @@
         <v>302</v>
       </c>
       <c r="D8" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>377</v>
+        <v>441</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>30</v>
@@ -5868,31 +6549,31 @@
         <v>454</v>
       </c>
       <c r="I8" s="7">
-        <v>492864</v>
+        <v>506184</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>442</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>386</v>
+        <v>443</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>387</v>
+        <v>176</v>
       </c>
       <c r="M8" s="7">
         <v>756</v>
       </c>
       <c r="N8" s="7">
-        <v>921260</v>
+        <v>929731</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>388</v>
+        <v>27</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>389</v>
+        <v>444</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>390</v>
+        <v>445</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5904,7 +6585,7 @@
         <v>302</v>
       </c>
       <c r="D9" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5919,7 +6600,7 @@
         <v>460</v>
       </c>
       <c r="I9" s="7">
-        <v>498577</v>
+        <v>511504</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5934,7 +6615,7 @@
         <v>762</v>
       </c>
       <c r="N9" s="7">
-        <v>926973</v>
+        <v>935051</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5957,46 +6638,46 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>6440</v>
+        <v>6001</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>372</v>
+        <v>317</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>161</v>
+        <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>446</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
       </c>
       <c r="I10" s="7">
-        <v>16219</v>
+        <v>15314</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>391</v>
+        <v>447</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>392</v>
+        <v>448</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>393</v>
+        <v>449</v>
       </c>
       <c r="M10" s="7">
         <v>31</v>
       </c>
       <c r="N10" s="7">
-        <v>22658</v>
+        <v>21315</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>394</v>
+        <v>450</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>395</v>
+        <v>451</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6008,46 +6689,46 @@
         <v>539</v>
       </c>
       <c r="D11" s="7">
-        <v>549496</v>
+        <v>529016</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>378</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>68</v>
+        <v>453</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>24</v>
       </c>
       <c r="H11" s="7">
         <v>819</v>
       </c>
       <c r="I11" s="7">
-        <v>565734</v>
+        <v>525714</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="M11" s="7">
         <v>1358</v>
       </c>
       <c r="N11" s="7">
-        <v>1115232</v>
+        <v>1054729</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6059,7 +6740,7 @@
         <v>545</v>
       </c>
       <c r="D12" s="7">
-        <v>555936</v>
+        <v>535017</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -6074,7 +6755,7 @@
         <v>844</v>
       </c>
       <c r="I12" s="7">
-        <v>581953</v>
+        <v>541028</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -6089,7 +6770,7 @@
         <v>1389</v>
       </c>
       <c r="N12" s="7">
-        <v>1137890</v>
+        <v>1076044</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6112,46 +6793,46 @@
         <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>27642</v>
+        <v>26404</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="H13" s="7">
         <v>97</v>
       </c>
       <c r="I13" s="7">
-        <v>68965</v>
+        <v>62229</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>56</v>
+        <v>464</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>407</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>123</v>
       </c>
       <c r="N13" s="7">
-        <v>96607</v>
+        <v>88633</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>410</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6163,46 +6844,46 @@
         <v>637</v>
       </c>
       <c r="D14" s="7">
-        <v>694102</v>
+        <v>859221</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>411</v>
+        <v>467</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="H14" s="7">
         <v>1032</v>
       </c>
       <c r="I14" s="7">
-        <v>670783</v>
+        <v>643577</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>415</v>
+        <v>84</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>64</v>
+        <v>471</v>
       </c>
       <c r="M14" s="7">
         <v>1669</v>
       </c>
       <c r="N14" s="7">
-        <v>1364884</v>
+        <v>1502798</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>417</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>418</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6214,7 +6895,7 @@
         <v>663</v>
       </c>
       <c r="D15" s="7">
-        <v>721744</v>
+        <v>885625</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -6229,7 +6910,7 @@
         <v>1129</v>
       </c>
       <c r="I15" s="7">
-        <v>739748</v>
+        <v>705806</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -6244,7 +6925,7 @@
         <v>1792</v>
       </c>
       <c r="N15" s="7">
-        <v>1461491</v>
+        <v>1591431</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6267,46 +6948,46 @@
         <v>51</v>
       </c>
       <c r="D16" s="7">
-        <v>46650</v>
+        <v>43763</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>419</v>
+        <v>474</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>420</v>
+        <v>475</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>421</v>
+        <v>476</v>
       </c>
       <c r="H16" s="7">
         <v>182</v>
       </c>
       <c r="I16" s="7">
-        <v>109575</v>
+        <v>100330</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>422</v>
+        <v>477</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>423</v>
+        <v>478</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>424</v>
+        <v>479</v>
       </c>
       <c r="M16" s="7">
         <v>233</v>
       </c>
       <c r="N16" s="7">
-        <v>156226</v>
+        <v>144093</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>425</v>
+        <v>480</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>426</v>
+        <v>481</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>427</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6318,46 +6999,46 @@
         <v>610</v>
       </c>
       <c r="D17" s="7">
-        <v>551405</v>
+        <v>515496</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>428</v>
+        <v>483</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>429</v>
+        <v>484</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>430</v>
+        <v>485</v>
       </c>
       <c r="H17" s="7">
         <v>813</v>
       </c>
       <c r="I17" s="7">
-        <v>481476</v>
+        <v>442233</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>431</v>
+        <v>486</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>432</v>
+        <v>487</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>433</v>
+        <v>488</v>
       </c>
       <c r="M17" s="7">
         <v>1423</v>
       </c>
       <c r="N17" s="7">
-        <v>1032880</v>
+        <v>957728</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>434</v>
+        <v>489</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>435</v>
+        <v>490</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>436</v>
+        <v>491</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6369,7 +7050,7 @@
         <v>661</v>
       </c>
       <c r="D18" s="7">
-        <v>598055</v>
+        <v>559259</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -6384,7 +7065,7 @@
         <v>995</v>
       </c>
       <c r="I18" s="7">
-        <v>591051</v>
+        <v>542563</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -6399,7 +7080,7 @@
         <v>1656</v>
       </c>
       <c r="N18" s="7">
-        <v>1189106</v>
+        <v>1101821</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -6419,49 +7100,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>157</v>
+        <v>61</v>
       </c>
       <c r="D19" s="7">
-        <v>104823</v>
+        <v>38375</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>437</v>
+        <v>492</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>439</v>
+        <v>494</v>
       </c>
       <c r="H19" s="7">
-        <v>645</v>
+        <v>254</v>
       </c>
       <c r="I19" s="7">
-        <v>444312</v>
+        <v>325158</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>440</v>
+        <v>495</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>441</v>
+        <v>496</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>442</v>
+        <v>497</v>
       </c>
       <c r="M19" s="7">
-        <v>802</v>
+        <v>315</v>
       </c>
       <c r="N19" s="7">
-        <v>549135</v>
+        <v>363533</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>443</v>
+        <v>498</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>444</v>
+        <v>499</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>445</v>
+        <v>500</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6470,49 +7151,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>868</v>
+        <v>507</v>
       </c>
       <c r="D20" s="7">
-        <v>590381</v>
+        <v>328198</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="H20" s="7">
-        <v>1059</v>
+        <v>571</v>
       </c>
       <c r="I20" s="7">
-        <v>579136</v>
+        <v>282020</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="M20" s="7">
-        <v>1927</v>
+        <v>1078</v>
       </c>
       <c r="N20" s="7">
-        <v>1169517</v>
+        <v>610218</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,10 +7202,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1025</v>
+        <v>568</v>
       </c>
       <c r="D21" s="7">
-        <v>695204</v>
+        <v>366573</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -6536,10 +7217,10 @@
         <v>30</v>
       </c>
       <c r="H21" s="7">
-        <v>1704</v>
+        <v>825</v>
       </c>
       <c r="I21" s="7">
-        <v>1023448</v>
+        <v>607178</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -6551,10 +7232,10 @@
         <v>30</v>
       </c>
       <c r="M21" s="7">
-        <v>2729</v>
+        <v>1393</v>
       </c>
       <c r="N21" s="7">
-        <v>1718652</v>
+        <v>973751</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -6568,55 +7249,55 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>240</v>
+        <v>96</v>
       </c>
       <c r="D22" s="7">
-        <v>185555</v>
+        <v>59022</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>457</v>
+        <v>372</v>
       </c>
       <c r="H22" s="7">
-        <v>958</v>
+        <v>391</v>
       </c>
       <c r="I22" s="7">
-        <v>653290</v>
+        <v>181840</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>458</v>
+        <v>512</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>459</v>
+        <v>513</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>460</v>
+        <v>514</v>
       </c>
       <c r="M22" s="7">
-        <v>1198</v>
+        <v>487</v>
       </c>
       <c r="N22" s="7">
-        <v>838845</v>
+        <v>240862</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>462</v>
+        <v>516</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>463</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6625,49 +7306,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>3128</v>
+        <v>361</v>
       </c>
       <c r="D23" s="7">
-        <v>3191459</v>
+        <v>222905</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>464</v>
+        <v>518</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>465</v>
+        <v>381</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>466</v>
+        <v>519</v>
       </c>
       <c r="H23" s="7">
-        <v>4381</v>
+        <v>488</v>
       </c>
       <c r="I23" s="7">
-        <v>3136444</v>
+        <v>242494</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>467</v>
+        <v>520</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>468</v>
+        <v>521</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>469</v>
+        <v>522</v>
       </c>
       <c r="M23" s="7">
-        <v>7509</v>
+        <v>849</v>
       </c>
       <c r="N23" s="7">
-        <v>6327903</v>
+        <v>465399</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>470</v>
+        <v>523</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>471</v>
+        <v>524</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>472</v>
+        <v>525</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6676,63 +7357,219 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
+        <v>457</v>
+      </c>
+      <c r="D24" s="7">
+        <v>281927</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="7">
+        <v>879</v>
+      </c>
+      <c r="I24" s="7">
+        <v>424334</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1336</v>
+      </c>
+      <c r="N24" s="7">
+        <v>706261</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>240</v>
+      </c>
+      <c r="D25" s="7">
+        <v>173564</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="H25" s="7">
+        <v>958</v>
+      </c>
+      <c r="I25" s="7">
+        <v>697191</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="M25" s="7">
+        <v>1198</v>
+      </c>
+      <c r="N25" s="7">
+        <v>870755</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3128</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3278370</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="H26" s="7">
+        <v>4381</v>
+      </c>
+      <c r="I26" s="7">
+        <v>2948420</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>540</v>
+      </c>
+      <c r="M26" s="7">
+        <v>7509</v>
+      </c>
+      <c r="N26" s="7">
+        <v>6226791</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3368</v>
       </c>
-      <c r="D24" s="7">
-        <v>3377014</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="D27" s="7">
+        <v>3451934</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H27" s="7">
         <v>5339</v>
       </c>
-      <c r="I24" s="7">
-        <v>3789734</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>3645611</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M27" s="7">
         <v>8707</v>
       </c>
-      <c r="N24" s="7">
-        <v>7166748</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>144</v>
+      <c r="N27" s="7">
+        <v>7097546</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
